--- a/TrimRangeDrill.xlsx
+++ b/TrimRangeDrill.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{E4E3595A-9E4B-4617-8E8E-2C1CB2528D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299DDB0B-FAAE-4A3C-88AA-4454D4B1864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstDrill" sheetId="1" r:id="rId1"/>
+    <sheet name="SecondDrill" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>First</t>
   </si>
@@ -158,12 +159,127 @@
   </si>
   <si>
     <t>https://exceljet.net/functions/trimrange-function#example-trimming-a-large-range</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Beds</t>
+  </si>
+  <si>
+    <t>Baths</t>
+  </si>
+  <si>
+    <t>Rows</t>
+  </si>
+  <si>
+    <t>5335 Lake Rd</t>
+  </si>
+  <si>
+    <t>2,003 For sale</t>
+  </si>
+  <si>
+    <t>4349 Cedar Ln</t>
+  </si>
+  <si>
+    <t>1,207 For sale</t>
+  </si>
+  <si>
+    <t>2573 Maple Ave</t>
+  </si>
+  <si>
+    <t>3,454 sold</t>
+  </si>
+  <si>
+    <t>3773 Lake Dr</t>
+  </si>
+  <si>
+    <t>3,455 sold</t>
+  </si>
+  <si>
+    <t>1659 Main Ave</t>
+  </si>
+  <si>
+    <t>1,041 For sale</t>
+  </si>
+  <si>
+    <t>2680 Lake Ave</t>
+  </si>
+  <si>
+    <t>1,535 For sale</t>
+  </si>
+  <si>
+    <t>2386 oak Rd</t>
+  </si>
+  <si>
+    <t>1,831 For sale</t>
+  </si>
+  <si>
+    <t>2636 oak st</t>
+  </si>
+  <si>
+    <t>2,646 sold</t>
+  </si>
+  <si>
+    <t>2095 Hill Dr</t>
+  </si>
+  <si>
+    <t>2,871 Sale Pending</t>
+  </si>
+  <si>
+    <t>2441 Main Ave</t>
+  </si>
+  <si>
+    <t>2,389 For sale</t>
+  </si>
+  <si>
+    <t>1632 Lake Dr</t>
+  </si>
+  <si>
+    <t>21.58 sale pending</t>
+  </si>
+  <si>
+    <t>3390 Park st</t>
+  </si>
+  <si>
+    <t>1229 For sale</t>
+  </si>
+  <si>
+    <t>4752 Maple Ln</t>
+  </si>
+  <si>
+    <t>2605 For sale</t>
+  </si>
+  <si>
+    <t>Size (sf)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>For sale</t>
+  </si>
+  <si>
+    <t>sold</t>
+  </si>
+  <si>
+    <t>Sale Pending</t>
+  </si>
+  <si>
+    <t>sale pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -249,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,12 +381,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,9 +427,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -804,8 +917,8 @@
   </sheetPr>
   <dimension ref="B2:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -882,7 +995,7 @@
       <c r="J4">
         <v>27</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1132,6 +1245,373 @@
       </c>
       <c r="E14">
         <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P4" r:id="rId1" location="example-trimming-a-large-range" xr:uid="{6F8A7E42-124C-4B00-9428-FAD9C703D8D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C23439-A150-44EE-8723-4E2CE72D955C}">
+  <dimension ref="B4:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4">
+        <f>ROWS(_xlfn.DROP(_xlfn.TRIMRANGE(B:H),1))</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>535680</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4">
+        <v>423910</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <f>VLOOKUP(K5,_xlfn.DROP(_xlfn.TRIMRANGE(B:H),1),3,0)</f>
+        <v>250047</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3">
+        <v>355068</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3">
+        <v>473365</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3">
+        <v>349562</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3887740</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3">
+        <v>628305</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="3">
+        <v>790649</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3">
+        <v>783209</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3">
+        <v>229702</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>341303</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>250047</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>6749740</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/TrimRangeDrill.xlsx
+++ b/TrimRangeDrill.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299DDB0B-FAAE-4A3C-88AA-4454D4B1864E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD947AE-AEFD-42D6-8EDD-0F1A8C1D4C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstDrill" sheetId="1" r:id="rId1"/>
-    <sheet name="SecondDrill" sheetId="2" r:id="rId2"/>
+    <sheet name="ThirdDrill" sheetId="3" r:id="rId2"/>
+    <sheet name="SecondDrill" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="data1">_xlfn.DROP(_xlfn.TRIMRANGE(ThirdDrill!$B:$H),1)</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -31,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -60,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>First</t>
   </si>
@@ -918,7 +922,7 @@
   <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1252,15 +1256,360 @@
     <hyperlink ref="P4" r:id="rId1" location="example-trimming-a-large-range" xr:uid="{6F8A7E42-124C-4B00-9428-FAD9C703D8D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C3D32-D6C0-43C5-A4D6-08E72F1C4B83}">
+  <dimension ref="B4:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>535680</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>423910</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6">
+        <f>VLOOKUP(K5,data1,3)</f>
+        <v>250047</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>355068</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>473365</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>349562</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>3887740</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>628305</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>790649</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>783209</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>229702</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>341303</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>250047</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17">
+        <v>6749740</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C23439-A150-44EE-8723-4E2CE72D955C}">
   <dimension ref="B4:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1616,5 +1965,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TrimRangeDrill.xlsx
+++ b/TrimRangeDrill.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD947AE-AEFD-42D6-8EDD-0F1A8C1D4C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DDC4BD-24B2-4329-8385-9FA7A679ECBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstDrill" sheetId="1" r:id="rId1"/>
-    <sheet name="ThirdDrill" sheetId="3" r:id="rId2"/>
-    <sheet name="SecondDrill" sheetId="2" r:id="rId3"/>
+    <sheet name="FourthDrill" sheetId="4" r:id="rId2"/>
+    <sheet name="ThirdDrill" sheetId="3" r:id="rId3"/>
+    <sheet name="SecondDrill" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="data1">_xlfn.DROP(_xlfn.TRIMRANGE(ThirdDrill!$B:$H),1)</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="86">
   <si>
     <t>First</t>
   </si>
@@ -274,6 +275,54 @@
   </si>
   <si>
     <t>sale pending</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Bird</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>Coyote</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Elephant</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>Mink</t>
+  </si>
+  <si>
+    <t>Moose</t>
+  </si>
+  <si>
+    <t>Otter</t>
+  </si>
+  <si>
+    <t>Jellyfish</t>
+  </si>
+  <si>
+    <t>Monkey</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>LEN1</t>
+  </si>
+  <si>
+    <t>Hi Mark</t>
+  </si>
+  <si>
+    <t>LEN2</t>
   </si>
 </sst>
 </file>
@@ -369,7 +418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,12 +486,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="11"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comment" xfId="8" xr:uid="{C4DDEBC2-DCD2-4316-AAE7-A5F6C47DBA99}"/>
@@ -729,6 +785,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>49698</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a cell phone&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53E98B07-0E80-8DB3-7766-6E5FA20ED6A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11727180" y="533400"/>
+          <a:ext cx="1200318" cy="3600953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Biegert_Standard">
   <a:themeElements>
@@ -1261,10 +1366,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C665A0-7AA2-4777-9220-18CBE4E00CB0}">
+  <dimension ref="B2:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" cm="1">
+        <f t="array" ref="D5:D15">LEN(B5:B15)</f>
+        <v>4</v>
+      </c>
+      <c r="F5" cm="1">
+        <f t="array" ref="F5:F16">LEN(_xlfn.DROP(_xlfn.TRIMRANGE(B:B),3))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C3D32-D6C0-43C5-A4D6-08E72F1C4B83}">
   <dimension ref="B4:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -1604,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C23439-A150-44EE-8723-4E2CE72D955C}">
   <dimension ref="B4:K17"/>
   <sheetViews>
